--- a/work/超管端对接城市端_专项评估_工作沟通通讯录_上部结构枚举.xlsx
+++ b/work/超管端对接城市端_专项评估_工作沟通通讯录_上部结构枚举.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49FC6C-E475-40CC-A0F3-137DE438A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1657A1-1880-4C60-B1D4-173503BB78CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="B3:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
